--- a/iran/transformations/templates/calibrated/iran/model_input_variables_iran_se_calibrated.xlsx
+++ b/iran/transformations/templates/calibrated/iran/model_input_variables_iran_se_calibrated.xlsx
@@ -594,112 +594,112 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>883.8464734</v>
+        <v>883.625114435657</v>
       </c>
       <c r="K2">
-        <v>879.24037684</v>
+        <v>879.6633193356651</v>
       </c>
       <c r="L2">
-        <v>874.63428028</v>
+        <v>875.128803492218</v>
       </c>
       <c r="M2">
-        <v>870.02818372</v>
+        <v>869.209782818966</v>
       </c>
       <c r="N2">
-        <v>865.42208716</v>
+        <v>863.059317505741</v>
       </c>
       <c r="O2">
-        <v>860.8159906</v>
+        <v>865.689844847097</v>
       </c>
       <c r="P2">
-        <v>866.7999088</v>
+        <v>884.482880054306</v>
       </c>
       <c r="Q2">
-        <v>872.783827</v>
+        <v>912.436872900765</v>
       </c>
       <c r="R2">
-        <v>878.7677452</v>
+        <v>940.915334498977</v>
       </c>
       <c r="S2">
-        <v>884.7516634</v>
+        <v>969.1250867557389</v>
       </c>
       <c r="T2">
-        <v>890.7355816</v>
+        <v>998.042563797904</v>
       </c>
       <c r="U2">
-        <v>918.61671848</v>
+        <v>1027.87933783827</v>
       </c>
       <c r="V2">
-        <v>946.49785536</v>
+        <v>1058.65576561112</v>
       </c>
       <c r="W2">
-        <v>974.37899224</v>
+        <v>1090.39220385073</v>
       </c>
       <c r="X2">
-        <v>1002.26012912</v>
+        <v>1123.10900929138</v>
       </c>
       <c r="Y2">
-        <v>1030.141266</v>
+        <v>1156.82653866736</v>
       </c>
       <c r="Z2">
-        <v>1062.1763514</v>
+        <v>1191.56514871294</v>
       </c>
       <c r="AA2">
-        <v>1094.2114368</v>
+        <v>1227.34519616242</v>
       </c>
       <c r="AB2">
-        <v>1126.2465222</v>
+        <v>1264.18703775006</v>
       </c>
       <c r="AC2">
-        <v>1158.2816076</v>
+        <v>1302.11442415646</v>
       </c>
       <c r="AD2">
-        <v>1190.316693</v>
+        <v>1341.16468184739</v>
       </c>
       <c r="AE2">
-        <v>1225.5035084</v>
+        <v>1381.37853123495</v>
       </c>
       <c r="AF2">
-        <v>1260.6903238</v>
+        <v>1422.79669273123</v>
       </c>
       <c r="AG2">
-        <v>1295.8771392</v>
+        <v>1465.4598867483</v>
       </c>
       <c r="AH2">
-        <v>1331.0639546</v>
+        <v>1509.40883369826</v>
       </c>
       <c r="AI2">
-        <v>1366.25077</v>
+        <v>1554.6842539932</v>
       </c>
       <c r="AJ2">
-        <v>1400.5088102</v>
+        <v>1601.3268680452</v>
       </c>
       <c r="AK2">
-        <v>1434.7668504</v>
+        <v>1649.37739626635</v>
       </c>
       <c r="AL2">
-        <v>1469.0248906</v>
+        <v>1698.87655906874</v>
       </c>
       <c r="AM2">
-        <v>1503.2829308</v>
+        <v>1749.86507686445</v>
       </c>
       <c r="AN2">
-        <v>1537.540971</v>
+        <v>1802.38367006558</v>
       </c>
       <c r="AO2">
-        <v>1569.7864134</v>
+        <v>1856.4730590842</v>
       </c>
       <c r="AP2">
-        <v>1602.0318558</v>
+        <v>1912.17396433241</v>
       </c>
       <c r="AQ2">
-        <v>1634.2772982</v>
+        <v>1969.5271062223</v>
       </c>
       <c r="AR2">
-        <v>1666.5227406</v>
+        <v>2028.57320516594</v>
       </c>
       <c r="AS2">
-        <v>1698.768183</v>
+        <v>2089.35298157544</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -1573,112 +1573,112 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="K10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="L10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="M10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="N10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="O10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="P10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="Q10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="R10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="S10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="T10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="U10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="V10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="W10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="X10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="Y10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="Z10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="AA10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="AB10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="AC10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="AD10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="AE10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="AF10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="AG10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="AH10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="AI10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="AJ10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="AK10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="AL10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="AM10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="AN10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="AO10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="AP10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="AQ10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="AR10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
       <c r="AS10">
-        <v>4.181218872870249</v>
+        <v>4.18121887287025</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1695,112 +1695,112 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>20911894.05536</v>
+        <v>21860642.31736</v>
       </c>
       <c r="K11">
-        <v>20782114.4492</v>
+        <v>21728030.6592</v>
       </c>
       <c r="L11">
-        <v>20657355.76128</v>
+        <v>21621460.5824</v>
       </c>
       <c r="M11">
-        <v>20533487.20808</v>
+        <v>21490943.75736</v>
       </c>
       <c r="N11">
-        <v>20404279.92837</v>
+        <v>21316691.82552</v>
       </c>
       <c r="O11">
-        <v>20264139.84078</v>
+        <v>21105851.10642</v>
       </c>
       <c r="P11">
-        <v>19577947.3197656</v>
+        <v>20756060.6466545</v>
       </c>
       <c r="Q11">
-        <v>19290870.8041966</v>
+        <v>20523016.9252806</v>
       </c>
       <c r="R11">
-        <v>19003794.2886276</v>
+        <v>20326508.4840811</v>
       </c>
       <c r="S11">
-        <v>18716717.7730585</v>
+        <v>20093211.2595196</v>
       </c>
       <c r="T11">
-        <v>18429641.2574895</v>
+        <v>19833681.14343</v>
       </c>
       <c r="U11">
-        <v>18082470.1027157</v>
+        <v>19516422.1989416</v>
       </c>
       <c r="V11">
-        <v>17735298.9479419</v>
+        <v>19178676.949651</v>
       </c>
       <c r="W11">
-        <v>17388127.793168</v>
+        <v>18824075.5523725</v>
       </c>
       <c r="X11">
-        <v>17040956.6383942</v>
+        <v>18456236.6507488</v>
       </c>
       <c r="Y11">
-        <v>16693785.4836204</v>
+        <v>18078474.3291</v>
       </c>
       <c r="Z11">
-        <v>16307054.8721033</v>
+        <v>17668714.1604554</v>
       </c>
       <c r="AA11">
-        <v>15920324.2605862</v>
+        <v>17255197.6984047</v>
       </c>
       <c r="AB11">
-        <v>15533593.649069</v>
+        <v>16837784.1409137</v>
       </c>
       <c r="AC11">
-        <v>15146863.0375519</v>
+        <v>16417134.2677346</v>
       </c>
       <c r="AD11">
-        <v>14760132.4260348</v>
+        <v>15994757.211225</v>
       </c>
       <c r="AE11">
-        <v>14344474.0285294</v>
+        <v>15549446.9391769</v>
       </c>
       <c r="AF11">
-        <v>13928815.6310239</v>
+        <v>15102124.470786</v>
       </c>
       <c r="AG11">
-        <v>13513157.2335185</v>
+        <v>14652465.2622843</v>
       </c>
       <c r="AH11">
-        <v>13097498.8360131</v>
+        <v>14200776.3422551</v>
       </c>
       <c r="AI11">
-        <v>12681840.4385076</v>
+        <v>13746888.5502</v>
       </c>
       <c r="AJ11">
-        <v>12238070.9897925</v>
+        <v>13275038.7289486</v>
       </c>
       <c r="AK11">
-        <v>11794301.5410774</v>
+        <v>12800625.8003402</v>
       </c>
       <c r="AL11">
-        <v>11350532.0923623</v>
+        <v>12323477.171434</v>
       </c>
       <c r="AM11">
-        <v>10906762.6436472</v>
+        <v>11843722.018246</v>
       </c>
       <c r="AN11">
-        <v>10462993.1949321</v>
+        <v>11361529.16901</v>
       </c>
       <c r="AO11">
-        <v>9995007.276104121</v>
+        <v>10865849.7149905</v>
       </c>
       <c r="AP11">
-        <v>9527021.357276119</v>
+        <v>10366618.0553635</v>
       </c>
       <c r="AQ11">
-        <v>9059035.43844812</v>
+        <v>9863852.524266081</v>
       </c>
       <c r="AR11">
-        <v>8591049.519620121</v>
+        <v>9357983.273673531</v>
       </c>
       <c r="AS11">
-        <v>8123063.60079211</v>
+        <v>8848548.10143001</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1817,112 +1817,112 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>57580313.94464</v>
+        <v>60192665.68264</v>
       </c>
       <c r="K12">
-        <v>58781876.5508</v>
+        <v>61457385.3408</v>
       </c>
       <c r="L12">
-        <v>60016532.23872</v>
+        <v>62817579.4176</v>
       </c>
       <c r="M12">
-        <v>61266716.79192</v>
+        <v>64123524.24264</v>
       </c>
       <c r="N12">
-        <v>62509613.07163</v>
+        <v>65304836.17448</v>
       </c>
       <c r="O12">
-        <v>63728813.15922</v>
+        <v>66375915.89358</v>
       </c>
       <c r="P12">
-        <v>63394274.3882344</v>
+        <v>67209058.3533455</v>
       </c>
       <c r="Q12">
-        <v>64314917.9018034</v>
+        <v>68422839.0747194</v>
       </c>
       <c r="R12">
-        <v>65235561.4153725</v>
+        <v>69776128.5159189</v>
       </c>
       <c r="S12">
-        <v>66156204.9289415</v>
+        <v>71021565.74048039</v>
       </c>
       <c r="T12">
-        <v>67076848.4425105</v>
+        <v>72187016.85657001</v>
       </c>
       <c r="U12">
-        <v>67912717.4252843</v>
+        <v>73298241.8010584</v>
       </c>
       <c r="V12">
-        <v>68748586.40805811</v>
+        <v>74343654.050349</v>
       </c>
       <c r="W12">
-        <v>69584455.39083199</v>
+        <v>75330884.4476275</v>
       </c>
       <c r="X12">
-        <v>70420324.3736058</v>
+        <v>76268850.3492512</v>
       </c>
       <c r="Y12">
-        <v>71256193.35637958</v>
+        <v>77166635.6709</v>
       </c>
       <c r="Z12">
-        <v>72043765.1758967</v>
+        <v>78059508.83954459</v>
       </c>
       <c r="AA12">
-        <v>72831336.9954138</v>
+        <v>78938035.3015953</v>
       </c>
       <c r="AB12">
-        <v>73618908.8149309</v>
+        <v>79799904.8590863</v>
       </c>
       <c r="AC12">
-        <v>74406480.6344481</v>
+        <v>80646479.7322654</v>
       </c>
       <c r="AD12">
-        <v>75194052.4539652</v>
+        <v>81483727.788775</v>
       </c>
       <c r="AE12">
-        <v>75950531.05747059</v>
+        <v>82330572.0608231</v>
       </c>
       <c r="AF12">
-        <v>76707009.6609761</v>
+        <v>83168507.52921399</v>
       </c>
       <c r="AG12">
-        <v>77463488.2644815</v>
+        <v>83994513.73771571</v>
       </c>
       <c r="AH12">
-        <v>78219966.8679869</v>
+        <v>84808883.6577449</v>
       </c>
       <c r="AI12">
-        <v>78976445.47149241</v>
+        <v>85609056.4498</v>
       </c>
       <c r="AJ12">
-        <v>79667140.23020749</v>
+        <v>86417571.2710515</v>
       </c>
       <c r="AK12">
-        <v>80357834.9889226</v>
+        <v>87214200.19965979</v>
       </c>
       <c r="AL12">
-        <v>81048529.7476377</v>
+        <v>87995848.828566</v>
       </c>
       <c r="AM12">
-        <v>81739224.5063528</v>
+        <v>88761136.981754</v>
       </c>
       <c r="AN12">
-        <v>82429919.26506791</v>
+        <v>89508796.83099</v>
       </c>
       <c r="AO12">
-        <v>83012369.75389591</v>
+        <v>90245050.2850095</v>
       </c>
       <c r="AP12">
-        <v>83594820.2427239</v>
+        <v>90961858.94463649</v>
       </c>
       <c r="AQ12">
-        <v>84177270.7315519</v>
+        <v>91655694.47573391</v>
       </c>
       <c r="AR12">
-        <v>84759721.2203799</v>
+        <v>92326327.7263265</v>
       </c>
       <c r="AS12">
-        <v>85342171.70920791</v>
+        <v>92964224.89857</v>
       </c>
     </row>
   </sheetData>

--- a/iran/transformations/templates/calibrated/iran/model_input_variables_iran_se_calibrated.xlsx
+++ b/iran/transformations/templates/calibrated/iran/model_input_variables_iran_se_calibrated.xlsx
@@ -8,13 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="strategy_id-0" sheetId="1" r:id="rId1"/>
+    <sheet name="strategy_id-6003" sheetId="2" r:id="rId2"/>
+    <sheet name="strategy_id-6004" sheetId="3" r:id="rId3"/>
+    <sheet name="strategy_id-6005" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
   <si>
     <t>subsector</t>
   </si>
@@ -1928,4 +1931,829 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0.99</v>
+      </c>
+      <c r="L2">
+        <v>0.98</v>
+      </c>
+      <c r="M2">
+        <v>0.97</v>
+      </c>
+      <c r="N2">
+        <v>0.96</v>
+      </c>
+      <c r="O2">
+        <v>0.95</v>
+      </c>
+      <c r="P2">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Q2">
+        <v>0.93</v>
+      </c>
+      <c r="R2">
+        <v>0.92</v>
+      </c>
+      <c r="S2">
+        <v>0.91</v>
+      </c>
+      <c r="T2">
+        <v>0.9</v>
+      </c>
+      <c r="U2">
+        <v>0.89</v>
+      </c>
+      <c r="V2">
+        <v>0.8475</v>
+      </c>
+      <c r="W2">
+        <v>0.8058333333333333</v>
+      </c>
+      <c r="X2">
+        <v>0.7649999999999999</v>
+      </c>
+      <c r="Y2">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="Z2">
+        <v>0.6858333333333333</v>
+      </c>
+      <c r="AA2">
+        <v>0.6475</v>
+      </c>
+      <c r="AB2">
+        <v>0.6099999999999999</v>
+      </c>
+      <c r="AC2">
+        <v>0.5733333333333335</v>
+      </c>
+      <c r="AD2">
+        <v>0.5375</v>
+      </c>
+      <c r="AE2">
+        <v>0.5024999999999999</v>
+      </c>
+      <c r="AF2">
+        <v>0.4683333333333334</v>
+      </c>
+      <c r="AG2">
+        <v>0.435</v>
+      </c>
+      <c r="AH2">
+        <v>0.4025000000000001</v>
+      </c>
+      <c r="AI2">
+        <v>0.3708333333333333</v>
+      </c>
+      <c r="AJ2">
+        <v>0.34</v>
+      </c>
+      <c r="AK2">
+        <v>0.31</v>
+      </c>
+      <c r="AL2">
+        <v>0.2808333333333333</v>
+      </c>
+      <c r="AM2">
+        <v>0.2525</v>
+      </c>
+      <c r="AN2">
+        <v>0.225</v>
+      </c>
+      <c r="AO2">
+        <v>0.2</v>
+      </c>
+      <c r="AP2">
+        <v>0.175</v>
+      </c>
+      <c r="AQ2">
+        <v>0.15</v>
+      </c>
+      <c r="AR2">
+        <v>0.125</v>
+      </c>
+      <c r="AS2">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0.99</v>
+      </c>
+      <c r="L2">
+        <v>0.98</v>
+      </c>
+      <c r="M2">
+        <v>0.97</v>
+      </c>
+      <c r="N2">
+        <v>0.96</v>
+      </c>
+      <c r="O2">
+        <v>0.95</v>
+      </c>
+      <c r="P2">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Q2">
+        <v>0.93</v>
+      </c>
+      <c r="R2">
+        <v>0.92</v>
+      </c>
+      <c r="S2">
+        <v>0.91</v>
+      </c>
+      <c r="T2">
+        <v>0.9</v>
+      </c>
+      <c r="U2">
+        <v>0.89</v>
+      </c>
+      <c r="V2">
+        <v>0.8558333333333333</v>
+      </c>
+      <c r="W2">
+        <v>0.8225</v>
+      </c>
+      <c r="X2">
+        <v>0.7899999999999999</v>
+      </c>
+      <c r="Y2">
+        <v>0.7583333333333334</v>
+      </c>
+      <c r="Z2">
+        <v>0.7274999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>0.6974999999999999</v>
+      </c>
+      <c r="AB2">
+        <v>0.6683333333333332</v>
+      </c>
+      <c r="AC2">
+        <v>0.6400000000000001</v>
+      </c>
+      <c r="AD2">
+        <v>0.6125</v>
+      </c>
+      <c r="AE2">
+        <v>0.5858333333333333</v>
+      </c>
+      <c r="AF2">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AG2">
+        <v>0.535</v>
+      </c>
+      <c r="AH2">
+        <v>0.5108333333333334</v>
+      </c>
+      <c r="AI2">
+        <v>0.4875</v>
+      </c>
+      <c r="AJ2">
+        <v>0.465</v>
+      </c>
+      <c r="AK2">
+        <v>0.4433333333333334</v>
+      </c>
+      <c r="AL2">
+        <v>0.4225</v>
+      </c>
+      <c r="AM2">
+        <v>0.4025</v>
+      </c>
+      <c r="AN2">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="AO2">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="AP2">
+        <v>0.35</v>
+      </c>
+      <c r="AQ2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AR2">
+        <v>0.3166666666666666</v>
+      </c>
+      <c r="AS2">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0.99</v>
+      </c>
+      <c r="L2">
+        <v>0.98</v>
+      </c>
+      <c r="M2">
+        <v>0.97</v>
+      </c>
+      <c r="N2">
+        <v>0.96</v>
+      </c>
+      <c r="O2">
+        <v>0.95</v>
+      </c>
+      <c r="P2">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Q2">
+        <v>0.93</v>
+      </c>
+      <c r="R2">
+        <v>0.92</v>
+      </c>
+      <c r="S2">
+        <v>0.91</v>
+      </c>
+      <c r="T2">
+        <v>0.9</v>
+      </c>
+      <c r="U2">
+        <v>0.89</v>
+      </c>
+      <c r="V2">
+        <v>0.8558333333333333</v>
+      </c>
+      <c r="W2">
+        <v>0.8225</v>
+      </c>
+      <c r="X2">
+        <v>0.7899999999999999</v>
+      </c>
+      <c r="Y2">
+        <v>0.7583333333333334</v>
+      </c>
+      <c r="Z2">
+        <v>0.7274999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>0.6974999999999999</v>
+      </c>
+      <c r="AB2">
+        <v>0.6683333333333332</v>
+      </c>
+      <c r="AC2">
+        <v>0.6400000000000001</v>
+      </c>
+      <c r="AD2">
+        <v>0.6125</v>
+      </c>
+      <c r="AE2">
+        <v>0.5858333333333333</v>
+      </c>
+      <c r="AF2">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AG2">
+        <v>0.535</v>
+      </c>
+      <c r="AH2">
+        <v>0.5108333333333334</v>
+      </c>
+      <c r="AI2">
+        <v>0.4875</v>
+      </c>
+      <c r="AJ2">
+        <v>0.465</v>
+      </c>
+      <c r="AK2">
+        <v>0.4433333333333334</v>
+      </c>
+      <c r="AL2">
+        <v>0.4225</v>
+      </c>
+      <c r="AM2">
+        <v>0.4025</v>
+      </c>
+      <c r="AN2">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="AO2">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="AP2">
+        <v>0.35</v>
+      </c>
+      <c r="AQ2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AR2">
+        <v>0.3166666666666666</v>
+      </c>
+      <c r="AS2">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/iran/transformations/templates/calibrated/iran/model_input_variables_iran_se_calibrated.xlsx
+++ b/iran/transformations/templates/calibrated/iran/model_input_variables_iran_se_calibrated.xlsx
@@ -11,13 +11,14 @@
     <sheet name="strategy_id-6003" sheetId="2" r:id="rId2"/>
     <sheet name="strategy_id-6004" sheetId="3" r:id="rId3"/>
     <sheet name="strategy_id-6005" sheetId="4" r:id="rId4"/>
+    <sheet name="strategy_id-7032" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
   <si>
     <t>subsector</t>
   </si>
@@ -1091,109 +1092,109 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -2098,109 +2099,109 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>0.9958333333333333</v>
+      </c>
+      <c r="W2">
+        <v>0.9916666666666666</v>
+      </c>
+      <c r="X2">
+        <v>0.9875</v>
+      </c>
+      <c r="Y2">
+        <v>0.9833333333333334</v>
+      </c>
+      <c r="Z2">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="AA2">
+        <v>0.975</v>
+      </c>
+      <c r="AB2">
+        <v>0.9708333333333332</v>
+      </c>
+      <c r="AC2">
+        <v>0.9666666666666668</v>
+      </c>
+      <c r="AD2">
+        <v>0.9625</v>
+      </c>
+      <c r="AE2">
+        <v>0.9583333333333333</v>
+      </c>
+      <c r="AF2">
+        <v>0.9541666666666667</v>
+      </c>
+      <c r="AG2">
         <v>0.95</v>
       </c>
-      <c r="P2">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Q2">
-        <v>0.93</v>
-      </c>
-      <c r="R2">
-        <v>0.92</v>
-      </c>
-      <c r="S2">
-        <v>0.91</v>
-      </c>
-      <c r="T2">
+      <c r="AH2">
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="AI2">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="AJ2">
+        <v>0.9375</v>
+      </c>
+      <c r="AK2">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="AL2">
+        <v>0.9291666666666667</v>
+      </c>
+      <c r="AM2">
+        <v>0.925</v>
+      </c>
+      <c r="AN2">
+        <v>0.9208333333333334</v>
+      </c>
+      <c r="AO2">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="AP2">
+        <v>0.9125</v>
+      </c>
+      <c r="AQ2">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="AR2">
+        <v>0.9041666666666667</v>
+      </c>
+      <c r="AS2">
         <v>0.9</v>
-      </c>
-      <c r="U2">
-        <v>0.89</v>
-      </c>
-      <c r="V2">
-        <v>0.8475</v>
-      </c>
-      <c r="W2">
-        <v>0.8058333333333333</v>
-      </c>
-      <c r="X2">
-        <v>0.7649999999999999</v>
-      </c>
-      <c r="Y2">
-        <v>0.7250000000000001</v>
-      </c>
-      <c r="Z2">
-        <v>0.6858333333333333</v>
-      </c>
-      <c r="AA2">
-        <v>0.6475</v>
-      </c>
-      <c r="AB2">
-        <v>0.6099999999999999</v>
-      </c>
-      <c r="AC2">
-        <v>0.5733333333333335</v>
-      </c>
-      <c r="AD2">
-        <v>0.5375</v>
-      </c>
-      <c r="AE2">
-        <v>0.5024999999999999</v>
-      </c>
-      <c r="AF2">
-        <v>0.4683333333333334</v>
-      </c>
-      <c r="AG2">
-        <v>0.435</v>
-      </c>
-      <c r="AH2">
-        <v>0.4025000000000001</v>
-      </c>
-      <c r="AI2">
-        <v>0.3708333333333333</v>
-      </c>
-      <c r="AJ2">
-        <v>0.34</v>
-      </c>
-      <c r="AK2">
-        <v>0.31</v>
-      </c>
-      <c r="AL2">
-        <v>0.2808333333333333</v>
-      </c>
-      <c r="AM2">
-        <v>0.2525</v>
-      </c>
-      <c r="AN2">
-        <v>0.225</v>
-      </c>
-      <c r="AO2">
-        <v>0.2</v>
-      </c>
-      <c r="AP2">
-        <v>0.175</v>
-      </c>
-      <c r="AQ2">
-        <v>0.15</v>
-      </c>
-      <c r="AR2">
-        <v>0.125</v>
-      </c>
-      <c r="AS2">
-        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -2373,109 +2374,109 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>0.9875</v>
+      </c>
+      <c r="W2">
+        <v>0.975</v>
+      </c>
+      <c r="X2">
+        <v>0.9625</v>
+      </c>
+      <c r="Y2">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Z2">
+        <v>0.9375</v>
+      </c>
+      <c r="AA2">
+        <v>0.925</v>
+      </c>
+      <c r="AB2">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="AC2">
         <v>0.9</v>
       </c>
-      <c r="U2">
-        <v>0.89</v>
-      </c>
-      <c r="V2">
-        <v>0.8558333333333333</v>
-      </c>
-      <c r="W2">
-        <v>0.8225</v>
-      </c>
-      <c r="X2">
-        <v>0.7899999999999999</v>
-      </c>
-      <c r="Y2">
-        <v>0.7583333333333334</v>
-      </c>
-      <c r="Z2">
-        <v>0.7274999999999999</v>
-      </c>
-      <c r="AA2">
-        <v>0.6974999999999999</v>
-      </c>
-      <c r="AB2">
-        <v>0.6683333333333332</v>
-      </c>
-      <c r="AC2">
-        <v>0.6400000000000001</v>
-      </c>
       <c r="AD2">
-        <v>0.6125</v>
+        <v>0.8875</v>
       </c>
       <c r="AE2">
-        <v>0.5858333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="AF2">
-        <v>0.5600000000000001</v>
+        <v>0.8625</v>
       </c>
       <c r="AG2">
-        <v>0.535</v>
+        <v>0.85</v>
       </c>
       <c r="AH2">
-        <v>0.5108333333333334</v>
+        <v>0.8374999999999999</v>
       </c>
       <c r="AI2">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AJ2">
-        <v>0.465</v>
+        <v>0.8125</v>
       </c>
       <c r="AK2">
-        <v>0.4433333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="AL2">
-        <v>0.4225</v>
+        <v>0.7875</v>
       </c>
       <c r="AM2">
-        <v>0.4025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AN2">
-        <v>0.3833333333333333</v>
+        <v>0.7625</v>
       </c>
       <c r="AO2">
-        <v>0.3666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="AP2">
-        <v>0.35</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AQ2">
-        <v>0.3333333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="AR2">
-        <v>0.3166666666666666</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="AS2">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -2648,109 +2649,384 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>0.9875</v>
+      </c>
+      <c r="W2">
+        <v>0.975</v>
+      </c>
+      <c r="X2">
+        <v>0.9625</v>
+      </c>
+      <c r="Y2">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="Z2">
+        <v>0.9375</v>
+      </c>
+      <c r="AA2">
+        <v>0.925</v>
+      </c>
+      <c r="AB2">
+        <v>0.9124999999999999</v>
+      </c>
+      <c r="AC2">
         <v>0.9</v>
       </c>
+      <c r="AD2">
+        <v>0.8875</v>
+      </c>
+      <c r="AE2">
+        <v>0.875</v>
+      </c>
+      <c r="AF2">
+        <v>0.8625</v>
+      </c>
+      <c r="AG2">
+        <v>0.85</v>
+      </c>
+      <c r="AH2">
+        <v>0.8374999999999999</v>
+      </c>
+      <c r="AI2">
+        <v>0.825</v>
+      </c>
+      <c r="AJ2">
+        <v>0.8125</v>
+      </c>
+      <c r="AK2">
+        <v>0.8</v>
+      </c>
+      <c r="AL2">
+        <v>0.7875</v>
+      </c>
+      <c r="AM2">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AN2">
+        <v>0.7625</v>
+      </c>
+      <c r="AO2">
+        <v>0.75</v>
+      </c>
+      <c r="AP2">
+        <v>0.7374999999999999</v>
+      </c>
+      <c r="AQ2">
+        <v>0.725</v>
+      </c>
+      <c r="AR2">
+        <v>0.7124999999999999</v>
+      </c>
+      <c r="AS2">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
       <c r="U2">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0.8558333333333333</v>
+        <v>0.9875</v>
       </c>
       <c r="W2">
-        <v>0.8225</v>
+        <v>0.975</v>
       </c>
       <c r="X2">
-        <v>0.7899999999999999</v>
+        <v>0.9625</v>
       </c>
       <c r="Y2">
-        <v>0.7583333333333334</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Z2">
-        <v>0.7274999999999999</v>
+        <v>0.9375</v>
       </c>
       <c r="AA2">
-        <v>0.6974999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB2">
-        <v>0.6683333333333332</v>
+        <v>0.9124999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.6400000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD2">
-        <v>0.6125</v>
+        <v>0.8875</v>
       </c>
       <c r="AE2">
-        <v>0.5858333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="AF2">
-        <v>0.5600000000000001</v>
+        <v>0.8625</v>
       </c>
       <c r="AG2">
-        <v>0.535</v>
+        <v>0.85</v>
       </c>
       <c r="AH2">
-        <v>0.5108333333333334</v>
+        <v>0.8374999999999999</v>
       </c>
       <c r="AI2">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AJ2">
-        <v>0.465</v>
+        <v>0.8125</v>
       </c>
       <c r="AK2">
-        <v>0.4433333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="AL2">
-        <v>0.4225</v>
+        <v>0.7875</v>
       </c>
       <c r="AM2">
-        <v>0.4025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AN2">
-        <v>0.3833333333333333</v>
+        <v>0.7625</v>
       </c>
       <c r="AO2">
-        <v>0.3666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="AP2">
-        <v>0.35</v>
+        <v>0.7374999999999999</v>
       </c>
       <c r="AQ2">
-        <v>0.3333333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="AR2">
-        <v>0.3166666666666666</v>
+        <v>0.7124999999999999</v>
       </c>
       <c r="AS2">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/iran/transformations/templates/calibrated/iran/model_input_variables_iran_se_calibrated.xlsx
+++ b/iran/transformations/templates/calibrated/iran/model_input_variables_iran_se_calibrated.xlsx
@@ -11,14 +11,13 @@
     <sheet name="strategy_id-6003" sheetId="2" r:id="rId2"/>
     <sheet name="strategy_id-6004" sheetId="3" r:id="rId3"/>
     <sheet name="strategy_id-6005" sheetId="4" r:id="rId4"/>
-    <sheet name="strategy_id-7032" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
   <si>
     <t>subsector</t>
   </si>
@@ -2757,279 +2756,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1">
-        <v>10</v>
-      </c>
-      <c r="U1" s="1">
-        <v>11</v>
-      </c>
-      <c r="V1" s="1">
-        <v>12</v>
-      </c>
-      <c r="W1" s="1">
-        <v>13</v>
-      </c>
-      <c r="X1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>22</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>0.9875</v>
-      </c>
-      <c r="W2">
-        <v>0.975</v>
-      </c>
-      <c r="X2">
-        <v>0.9625</v>
-      </c>
-      <c r="Y2">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="Z2">
-        <v>0.9375</v>
-      </c>
-      <c r="AA2">
-        <v>0.925</v>
-      </c>
-      <c r="AB2">
-        <v>0.9124999999999999</v>
-      </c>
-      <c r="AC2">
-        <v>0.9</v>
-      </c>
-      <c r="AD2">
-        <v>0.8875</v>
-      </c>
-      <c r="AE2">
-        <v>0.875</v>
-      </c>
-      <c r="AF2">
-        <v>0.8625</v>
-      </c>
-      <c r="AG2">
-        <v>0.85</v>
-      </c>
-      <c r="AH2">
-        <v>0.8374999999999999</v>
-      </c>
-      <c r="AI2">
-        <v>0.825</v>
-      </c>
-      <c r="AJ2">
-        <v>0.8125</v>
-      </c>
-      <c r="AK2">
-        <v>0.8</v>
-      </c>
-      <c r="AL2">
-        <v>0.7875</v>
-      </c>
-      <c r="AM2">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AN2">
-        <v>0.7625</v>
-      </c>
-      <c r="AO2">
-        <v>0.75</v>
-      </c>
-      <c r="AP2">
-        <v>0.7374999999999999</v>
-      </c>
-      <c r="AQ2">
-        <v>0.725</v>
-      </c>
-      <c r="AR2">
-        <v>0.7124999999999999</v>
-      </c>
-      <c r="AS2">
-        <v>0.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/iran/transformations/templates/calibrated/iran/model_input_variables_iran_se_calibrated.xlsx
+++ b/iran/transformations/templates/calibrated/iran/model_input_variables_iran_se_calibrated.xlsx
@@ -66,13 +66,14 @@
     <sheet name="strategy_id-7157" sheetId="57" r:id="rId57"/>
     <sheet name="strategy_id-7158" sheetId="58" r:id="rId58"/>
     <sheet name="strategy_id-7159" sheetId="59" r:id="rId59"/>
+    <sheet name="strategy_id-7160" sheetId="60" r:id="rId60"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="22">
   <si>
     <t>subsector</t>
   </si>
@@ -17113,6 +17114,281 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>0.9869565217391305</v>
+      </c>
+      <c r="X2">
+        <v>0.9739130434782609</v>
+      </c>
+      <c r="Y2">
+        <v>0.9608695652173913</v>
+      </c>
+      <c r="Z2">
+        <v>0.9478260869565217</v>
+      </c>
+      <c r="AA2">
+        <v>0.9347826086956522</v>
+      </c>
+      <c r="AB2">
+        <v>0.9217391304347825</v>
+      </c>
+      <c r="AC2">
+        <v>0.908695652173913</v>
+      </c>
+      <c r="AD2">
+        <v>0.8956521739130434</v>
+      </c>
+      <c r="AE2">
+        <v>0.8826086956521739</v>
+      </c>
+      <c r="AF2">
+        <v>0.8695652173913044</v>
+      </c>
+      <c r="AG2">
+        <v>0.8565217391304347</v>
+      </c>
+      <c r="AH2">
+        <v>0.8434782608695652</v>
+      </c>
+      <c r="AI2">
+        <v>0.8304347826086956</v>
+      </c>
+      <c r="AJ2">
+        <v>0.817391304347826</v>
+      </c>
+      <c r="AK2">
+        <v>0.8043478260869565</v>
+      </c>
+      <c r="AL2">
+        <v>0.7913043478260869</v>
+      </c>
+      <c r="AM2">
+        <v>0.7782608695652173</v>
+      </c>
+      <c r="AN2">
+        <v>0.7652173913043477</v>
+      </c>
+      <c r="AO2">
+        <v>0.7521739130434782</v>
+      </c>
+      <c r="AP2">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="AQ2">
+        <v>0.7260869565217392</v>
+      </c>
+      <c r="AR2">
+        <v>0.7130434782608696</v>
+      </c>
+      <c r="AS2">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS2"/>
